--- a/nbaPlayoffgganimate3ts.xlsx
+++ b/nbaPlayoffgganimate3ts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
   <si>
     <t>Player</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>Off Court</t>
+  </si>
+  <si>
+    <t>Offcourt</t>
+  </si>
+  <si>
+    <t>Differential</t>
   </si>
 </sst>
 </file>
@@ -549,6 +555,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,9 +569,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -845,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE40"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22:AE40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,135 +863,143 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="X1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AB1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AC1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="25" t="s">
+      <c r="AD1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AE1" s="23" t="s">
         <v>66</v>
       </c>
+      <c r="AF1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="27"/>
+    <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
     </row>
-    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1079,8 +1093,15 @@
       <c r="AE3" t="s">
         <v>68</v>
       </c>
+      <c r="AF3" s="21">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="AG3">
+        <f>AD3-AD22</f>
+        <v>2.7000000000000024E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1174,8 +1195,15 @@
       <c r="AE4" t="s">
         <v>68</v>
       </c>
+      <c r="AF4" s="21">
+        <v>0.498</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ref="AG4:AG39" si="0">AD4-AD23</f>
+        <v>9.4999999999999973E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -1269,8 +1297,15 @@
       <c r="AE5" t="s">
         <v>68</v>
       </c>
+      <c r="AF5" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>7.0999999999999952E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
@@ -1364,8 +1399,15 @@
       <c r="AE6" t="s">
         <v>68</v>
       </c>
+      <c r="AF6" s="21">
+        <v>0.436</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>0.11900000000000005</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
@@ -1459,8 +1501,15 @@
       <c r="AE7" t="s">
         <v>68</v>
       </c>
+      <c r="AF7" s="21">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
+        <v>6.6999999999999948E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
@@ -1554,8 +1603,15 @@
       <c r="AE8" t="s">
         <v>68</v>
       </c>
+      <c r="AF8" s="21">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="0"/>
+        <v>5.7000000000000051E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
@@ -1649,8 +1705,15 @@
       <c r="AE9" t="s">
         <v>68</v>
       </c>
+      <c r="AF9" s="21">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="0"/>
+        <v>-7.9999999999998961E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -1744,8 +1807,15 @@
       <c r="AE10" t="s">
         <v>68</v>
       </c>
+      <c r="AF10" s="21">
+        <v>0.505</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="0"/>
+        <v>3.8000000000000034E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -1839,8 +1909,15 @@
       <c r="AE11" t="s">
         <v>68</v>
       </c>
+      <c r="AF11" s="21">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1934,8 +2011,15 @@
       <c r="AE12" t="s">
         <v>68</v>
       </c>
+      <c r="AF12" s="21">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000018E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -2029,8 +2113,15 @@
       <c r="AE13" t="s">
         <v>68</v>
       </c>
+      <c r="AF13" s="21">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="0"/>
+        <v>9.4000000000000028E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
@@ -2124,8 +2215,15 @@
       <c r="AE14" t="s">
         <v>68</v>
       </c>
+      <c r="AF14" s="21">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000039E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -2219,8 +2317,15 @@
       <c r="AE15" t="s">
         <v>68</v>
       </c>
+      <c r="AF15" s="21">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="0"/>
+        <v>-1.6999999999999904E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>56</v>
       </c>
@@ -2314,8 +2419,15 @@
       <c r="AE16" t="s">
         <v>68</v>
       </c>
+      <c r="AF16" s="21">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="0"/>
+        <v>2.200000000000002E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>58</v>
       </c>
@@ -2409,8 +2521,15 @@
       <c r="AE17" t="s">
         <v>68</v>
       </c>
+      <c r="AF17" s="22">
+        <v>0.495</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="0"/>
+        <v>5.3000000000000047E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>60</v>
       </c>
@@ -2504,8 +2623,15 @@
       <c r="AE18" t="s">
         <v>68</v>
       </c>
+      <c r="AF18" s="21">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="0"/>
+        <v>7.6999999999999957E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>62</v>
       </c>
@@ -2599,8 +2725,15 @@
       <c r="AE19" t="s">
         <v>68</v>
       </c>
+      <c r="AF19" s="21">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="0"/>
+        <v>-7.0999999999999952E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>63</v>
       </c>
@@ -2694,8 +2827,15 @@
       <c r="AE20" t="s">
         <v>68</v>
       </c>
+      <c r="AF20" s="21">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="0"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>64</v>
       </c>
@@ -2789,8 +2929,15 @@
       <c r="AE21" t="s">
         <v>68</v>
       </c>
+      <c r="AF21" s="22">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="AG21">
+        <f>AD21-AD40</f>
+        <v>-8.0999999999999961E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -2884,8 +3031,14 @@
       <c r="AE22" t="s">
         <v>69</v>
       </c>
+      <c r="AF22" s="21">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="AG22">
+        <v>2.7000000000000024E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3132,14 @@
       <c r="AE23" t="s">
         <v>69</v>
       </c>
+      <c r="AF23" s="21">
+        <v>0.498</v>
+      </c>
+      <c r="AG23">
+        <v>9.4999999999999973E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
@@ -3074,8 +3233,14 @@
       <c r="AE24" t="s">
         <v>69</v>
       </c>
+      <c r="AF24" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AG24">
+        <v>7.0999999999999952E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -3169,8 +3334,14 @@
       <c r="AE25" t="s">
         <v>69</v>
       </c>
+      <c r="AF25" s="21">
+        <v>0.436</v>
+      </c>
+      <c r="AG25">
+        <v>0.11900000000000005</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
@@ -3264,8 +3435,14 @@
       <c r="AE26" t="s">
         <v>69</v>
       </c>
+      <c r="AF26" s="21">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="AG26">
+        <v>6.6999999999999948E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
@@ -3359,8 +3536,14 @@
       <c r="AE27" t="s">
         <v>69</v>
       </c>
+      <c r="AF27" s="21">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="AG27">
+        <v>5.7000000000000051E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
@@ -3454,8 +3637,14 @@
       <c r="AE28" t="s">
         <v>69</v>
       </c>
+      <c r="AF28" s="21">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AG28">
+        <v>-7.9999999999998961E-3</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>44</v>
       </c>
@@ -3549,8 +3738,14 @@
       <c r="AE29" t="s">
         <v>69</v>
       </c>
+      <c r="AF29" s="21">
+        <v>0.505</v>
+      </c>
+      <c r="AG29">
+        <v>3.8000000000000034E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>47</v>
       </c>
@@ -3644,8 +3839,14 @@
       <c r="AE30" t="s">
         <v>69</v>
       </c>
+      <c r="AF30" s="21">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="AG30">
+        <v>7.0000000000000062E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
@@ -3739,8 +3940,14 @@
       <c r="AE31" t="s">
         <v>69</v>
       </c>
+      <c r="AF31" s="21">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="AG31">
+        <v>8.3000000000000018E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>51</v>
       </c>
@@ -3834,8 +4041,14 @@
       <c r="AE32" t="s">
         <v>69</v>
       </c>
+      <c r="AF32" s="21">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="AG32">
+        <v>9.4000000000000028E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>52</v>
       </c>
@@ -3929,8 +4142,14 @@
       <c r="AE33" t="s">
         <v>69</v>
       </c>
+      <c r="AF33" s="21">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="AG33">
+        <v>4.4000000000000039E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>54</v>
       </c>
@@ -4024,8 +4243,14 @@
       <c r="AE34" t="s">
         <v>69</v>
       </c>
+      <c r="AF34" s="21">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="AG34">
+        <v>-1.6999999999999904E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>56</v>
       </c>
@@ -4119,8 +4344,14 @@
       <c r="AE35" t="s">
         <v>69</v>
       </c>
+      <c r="AF35" s="21">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="AG35">
+        <v>2.200000000000002E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>58</v>
       </c>
@@ -4214,8 +4445,14 @@
       <c r="AE36" t="s">
         <v>69</v>
       </c>
+      <c r="AF36" s="22">
+        <v>0.495</v>
+      </c>
+      <c r="AG36">
+        <v>5.3000000000000047E-2</v>
+      </c>
     </row>
-    <row r="37" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>60</v>
       </c>
@@ -4309,8 +4546,14 @@
       <c r="AE37" t="s">
         <v>69</v>
       </c>
+      <c r="AF37" s="21">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="AG37">
+        <v>7.6999999999999957E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4647,14 @@
       <c r="AE38" t="s">
         <v>69</v>
       </c>
+      <c r="AF38" s="21">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="AG38">
+        <v>-7.0999999999999952E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>63</v>
       </c>
@@ -4499,8 +4748,14 @@
       <c r="AE39" t="s">
         <v>69</v>
       </c>
+      <c r="AF39" s="21">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="AG39">
+        <v>-5.0000000000000044E-3</v>
+      </c>
     </row>
-    <row r="40" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>64</v>
       </c>
@@ -4594,9 +4849,16 @@
       <c r="AE40" t="s">
         <v>69</v>
       </c>
+      <c r="AF40" s="22">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="AG40">
+        <v>-8.0999999999999961E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
+    <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4621,6 +4883,7 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
+    <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="AA1:AA2"/>
